--- a/Pull Request Here/Start Without Tech - 2550777561/Start Without Tech - 2550777561.xlsx
+++ b/Pull Request Here/Start Without Tech - 2550777561/Start Without Tech - 2550777561.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Start Without Tech - 2550777561\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45801298-E996-4AF6-904B-D3CC5DAD3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E236C-5E0A-4E7C-8716-A730D48BC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -49,125 +49,126 @@
     <t>StartWithoutTechModName</t>
   </si>
   <si>
+    <t>Keyed+RequiresRestartLabel</t>
+  </si>
+  <si>
+    <t>RequiresRestartLabel</t>
+  </si>
+  <si>
+    <t>Takes effect after restarting RimWorld</t>
+  </si>
+  <si>
+    <t>Keyed+UseSelectedTechLevelLabel</t>
+  </si>
+  <si>
+    <t>UseSelectedTechLevelLabel</t>
+  </si>
+  <si>
+    <t>Use Selected Tech Level</t>
+  </si>
+  <si>
+    <t>Keyed+StartingTechLevelLabel</t>
+  </si>
+  <si>
+    <t>StartingTechLevelLabel</t>
+  </si>
+  <si>
+    <t>Starting Tech Level</t>
+  </si>
+  <si>
+    <t>Keyed+SetCurrentTechLevelLabel</t>
+  </si>
+  <si>
+    <t>SetCurrentTechLevelLabel</t>
+  </si>
+  <si>
+    <t>Set Current Tech Level</t>
+  </si>
+  <si>
+    <t>Keyed+RemoveFactionResearchesLabel</t>
+  </si>
+  <si>
+    <t>RemoveFactionResearchesLabel</t>
+  </si>
+  <si>
+    <t>Remove start researches from faction</t>
+  </si>
+  <si>
+    <t>Keyed+RemoveMemeResearchesLabel</t>
+  </si>
+  <si>
+    <t>RemoveMemeResearchesLabel</t>
+  </si>
+  <si>
+    <t>Remove start researches from memes</t>
+  </si>
+  <si>
+    <t>Keyed+UseSelectedTechLevelTooltip</t>
+  </si>
+  <si>
+    <t>UseSelectedTechLevelTooltip</t>
+  </si>
+  <si>
+    <t>All new games will start with the tech level below.</t>
+  </si>
+  <si>
+    <t>Keyed+RemoveFactionResearchesTooltip</t>
+  </si>
+  <si>
+    <t>RemoveFactionResearchesTooltip</t>
+  </si>
+  <si>
+    <t>Keyed+RemoveMemeResearchesTooltip</t>
+  </si>
+  <si>
+    <t>RemoveMemeResearchesTooltip</t>
+  </si>
+  <si>
+    <t>림월드를 재시작해야 설정이 적용됩니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오에 따라 제공되는 연구 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이데올로기에 따라 제공되는 연구 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All new games will start without starting researches from your memes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All new games will start without starting researches from your faction.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크하면, 새 게임은 이데올로기로부터 제공되는 연구 없이 시작합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크하면, 새 게임은 시나리오로부터 제공되는 연구 없이 시작합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 세이브의 기술 수준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 게임의 기술 수준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 게임의 기술 수준 적용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크하면, 새 게임은 아래의 기술 수준으로 시작합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Start Without Tech</t>
-  </si>
-  <si>
-    <t>Keyed+RequiresRestartLabel</t>
-  </si>
-  <si>
-    <t>RequiresRestartLabel</t>
-  </si>
-  <si>
-    <t>Takes effect after restarting RimWorld</t>
-  </si>
-  <si>
-    <t>Keyed+UseSelectedTechLevelLabel</t>
-  </si>
-  <si>
-    <t>UseSelectedTechLevelLabel</t>
-  </si>
-  <si>
-    <t>Use Selected Tech Level</t>
-  </si>
-  <si>
-    <t>Keyed+StartingTechLevelLabel</t>
-  </si>
-  <si>
-    <t>StartingTechLevelLabel</t>
-  </si>
-  <si>
-    <t>Starting Tech Level</t>
-  </si>
-  <si>
-    <t>Keyed+SetCurrentTechLevelLabel</t>
-  </si>
-  <si>
-    <t>SetCurrentTechLevelLabel</t>
-  </si>
-  <si>
-    <t>Set Current Tech Level</t>
-  </si>
-  <si>
-    <t>Keyed+RemoveFactionResearchesLabel</t>
-  </si>
-  <si>
-    <t>RemoveFactionResearchesLabel</t>
-  </si>
-  <si>
-    <t>Remove start researches from faction</t>
-  </si>
-  <si>
-    <t>Keyed+RemoveMemeResearchesLabel</t>
-  </si>
-  <si>
-    <t>RemoveMemeResearchesLabel</t>
-  </si>
-  <si>
-    <t>Remove start researches from memes</t>
-  </si>
-  <si>
-    <t>Keyed+UseSelectedTechLevelTooltip</t>
-  </si>
-  <si>
-    <t>UseSelectedTechLevelTooltip</t>
-  </si>
-  <si>
-    <t>All new games will start with the tech level below.</t>
-  </si>
-  <si>
-    <t>Keyed+RemoveFactionResearchesTooltip</t>
-  </si>
-  <si>
-    <t>RemoveFactionResearchesTooltip</t>
-  </si>
-  <si>
-    <t>Keyed+RemoveMemeResearchesTooltip</t>
-  </si>
-  <si>
-    <t>RemoveMemeResearchesTooltip</t>
-  </si>
-  <si>
-    <t>림월드를 재시작해야 설정이 적용됩니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오에 따라 제공되는 연구 제거</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이데올로기에 따라 제공되는 연구 제거</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All new games will start without starting researches from your memes.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All new games will start without starting researches from your faction.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크하면, 새 게임은 이데올로기로부터 제공되는 연구 없이 시작합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크하면, 새 게임은 시나리오로부터 제공되는 연구 없이 시작합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 세이브의 기술 수준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 게임의 기술 수준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 게임의 기술 수준 적용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크하면, 새 게임은 아래의 기술 수준으로 시작합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,161 +575,163 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
